--- a/435exam.xlsx
+++ b/435exam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\The Terminator\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{445ED955-5FBF-4C94-A406-BAE47A58B47C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AE4DF85B-14E5-4BF9-96EE-6B59BACA7358}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{8EC2AC6F-799A-45C3-9812-8F93DEE1E69D}"/>
   </bookViews>
